--- a/DateBase/orders/Nha Thu_2025-12-5.xlsx
+++ b/DateBase/orders/Nha Thu_2025-12-5.xlsx
@@ -889,6 +889,9 @@
       <c r="G2" t="str">
         <v>0151912101030303010201010315551055152030138.51082010753192015101535602070555153</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
